--- a/biology/Zoologie/Enyalioides_microlepis/Enyalioides_microlepis.xlsx
+++ b/biology/Zoologie/Enyalioides_microlepis/Enyalioides_microlepis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enyalioides microlepis est une espèce de sauriens de la famille des Hoplocercidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enyalioides microlepis est une espèce de sauriens de la famille des Hoplocercidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Équateur et en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Équateur et en Colombie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O'Shaughnessy, 1881 : An account of the collection of lizards made by Mr. Buckley in Ecuador, and now in the British Museum, with descritions of the new species. Proceedings of the Zoological Society of London, vol. 1881, p. 227-245 (texte intégral).</t>
         </is>
